--- a/UML/レビュー2nd.xlsx
+++ b/UML/レビュー2nd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7680" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7680" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー2nd" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="戦略など" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
     <sheet name="戦略など(まとめ)" sheetId="6" r:id="rId6"/>
+    <sheet name="7月_クラス図レビュー" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId8"/>
+    <sheet name="7月2日質問事項" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="324">
   <si>
     <t>線が交わる→クラス図がおかしい</t>
     <rPh sb="0" eb="1">
@@ -3033,12 +3038,1397 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>do キャリブレーション while(1)ってなるけど、モデルにするとわからなくなっちゃう。メンバ変数とかで持つとわかりやすい</t>
-    <rPh sb="49" eb="51">
+    <t>6/30クラス図レビュー</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定クラスにほかのものも入るのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ変数で書くで書くときの関連(構造体のところ)</t>
+    <rPh sb="3" eb="5">
       <t>ヘンスウ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分値を取得するインターフェース</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID制御のD制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想ライン走行のときには目標方向を考える</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タッチセンサも判定にかける</t>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレースの光センサの取得値が1変化したときの"1"と、座標データの"1"では、制御量(?)が異なる</t>
+    <rPh sb="8" eb="9">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ出力は制御システムを見てないのでは？</t>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス間のつながりは、コミュニケーション図と同様にする</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートメソッドパターンというものがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do 、キャリブレーション 、while(1)ってなるけど、モデルにするとわからなくなっちゃう。メンバ変数とかで持つとわかりやすい</t>
+    <rPh sb="51" eb="53">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレースケール変換を行うはいらないかも</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定するは継承するクラス</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上の判定するポインタ、オーバーライド</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方位</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累積されたエンコーダ値はAPIにある</t>
+    <rPh sb="0" eb="2">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回のエンコーダ値は必要かも</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離の推定の引数はいらないかも。名前は自己位置を推定する？</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間、方位のgetter</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしくはオドメトリ法の関数</t>
+    <rPh sb="9" eb="10">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回の座標がない</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getterで座標をとれるようにする</t>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレースがわかりにくい。引数が違う？</t>
+    <rPh sb="15" eb="17">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本来の位置、本当はいなくちゃいけない位置→差分</t>
+    <rPh sb="0" eb="2">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public→上のやつがたたく→引数の値がわからない</t>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレースはインターフェース→クラス分け</t>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御システムは区間の判定条件をわたさないと。設定てきな感じ</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売っ緩と判定種別がいる</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾のPWMがいる</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多重度order</t>
+    <rPh sb="0" eb="2">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間情報、読み込んでいるのがわかるように。</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体と関連をつながない(構造体はCにしかないから、全言語共通のUMLに書くのは微妙かも)</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ビミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行するが呼ばれると何がたたかれるの？キャリブレーション→走行する</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間情報を読み取るなら、読み取るクラスが必要なのでは</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御状態…初回のみキャリブレーションが呼ばれる</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間判定</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定を行うを実行し、そこから区間の判定を行うを実行すると、その引数がたりない</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレースの切り替えは何を基準にしているの？（制御量統括がもっていない）</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御量統括→旋回量→毎回計算している→privateで持つ必要ないのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウカツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マイカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID制御→カラーセンサ値ではなく取得値の方が良いのでは？</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化があるところ(初期化がないなら、初期化がないんですか？)</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x座標の取得、y座標の取得は同時に行うから構造体で戻り値</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privateだと関数の引数でしか渡せない(ライントレースの話)</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾のPWM値を渡す→目標角度</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行情報を渡すの、構造体の方が良いかも</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標座標との差分</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスに出力</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行指示終了</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オドメトリ法</t>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定結果が終了したら・・・</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>山口ちゃんと違うところ。区間情報:区間[]があるなら、走行中区間:区間はいらないのでは？</t>
+  </si>
+  <si>
+    <t>走行中区間:区間は、これがあるから、他の情報から参照するときに、このメンバ変数を見ればよいということで存在しているのですか？</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>私が想像していたキャリブレーションの方法も山口ちゃんのクラス図のキャリブレーションも納得できないのですが、まだ美しいのはどちらですか</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>山口ちゃんのクラス図のキャリブレーションさん、タッチセンサにつながってないの微妙じゃないですか？山口ちゃんの言いたいこともわかるし、私のクラス図はタッチセンサが判定を通さずに直接見ているのもなんともですが…</t>
+  </si>
+  <si>
+    <t>*4</t>
+  </si>
+  <si>
+    <t>トレース情報取れるかわからないです。</t>
+  </si>
+  <si>
+    <t>山口ちゃんのクラス図には追加旋回量の計算を行うところがないため(山口ちゃん曰く、制御量統括が行っている)、旋回量計算さんをかませたのですがどうでしょう。</t>
+  </si>
+  <si>
+    <t>*5</t>
+  </si>
+  <si>
+    <t>*6</t>
+  </si>
+  <si>
+    <t>平田クラス図疑問点</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ギモンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図疑問点</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ギモンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方位がいまいちどこにかかわるのかわからない。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口ちゃんと違うところ。キャリブレーションさんはどのタイミングで実行されているんですか。どこですか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインで実行するので制御さんからつながってないんですか。実行するさんが動作種別を見て、0ならキャリブレーション,1なら走行と見る想像をしていたのですが。暗黙の了解的な何かでキャリブレーションは知らないうちに終わっているのですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾はどうなっているんですか？こいつも暗黙の了解的ななにかでしょうか</t>
+    <rPh sb="19" eb="21">
+      <t>アンモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リョウカイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のプログラムですとメインの中で尻尾倒立が行われているため、キャリブレーションと同様の扱い(?)かなと。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウリツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランスコントロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID制御との差分</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何が起きているのか説明していただきたいです。判定を行うためには、走行体の現在位置の座標が、目標位置の座標に達したかどうかの判定を行えばよいということですよね？</t>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検知座標(目標値)、座標ベクトルとなっています。ベクトルではないのではないのではないでしょうか。あと、intとfloatになっているのは意図がありますか？私は両方floatにしました</t>
+    <rPh sb="0" eb="2">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>リョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己位置推定の扱い</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログの扱い</t>
+    <rPh sb="3" eb="4">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーションをした後に区間の情報を読み込んだ方が良いかも</t>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想ライントレースのときは、方位は取得しないのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方位の計算だけで50stepくらいあるのでは？Mathライブラリ、ノットナンバーの対応とかも必要</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間情報が変わったとき→区間情報を赤字で足して、</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランスコントロールのエンコーダの値</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図におけるインターフェースの扱い→外側の人が意識するだけで、シーケンス図にはいらない</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setterなのに、戻り値がある(検知条件)</t>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ→外にいるメインがopenを呼ぶ?initでopen、デストラクタでclose?</t>
+    <rPh sb="3" eb="4">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デキューの戻り値によってはログに書き込まないとかもあり</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ→外にいるメインがopenを呼ぶ?initでopen、デストラクタでclose?、ログに書き込むが引数voidでいいのでは</t>
+    <rPh sb="3" eb="4">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンとクローズは別タスク(?)にした方が良いのではないか？</t>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4msec経過して別の周期になると、区間を進めたときの区間情報が捨てられる。そのため、区間情報は最初に読み込まないと！</t>
+    <rPh sb="5" eb="7">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月3日戦略会議</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>司会：平田</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認(担当、今年の難所)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難所ごとの攻略方法</t>
+    <rPh sb="0" eb="2">
+      <t>ナンショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーソー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップゲート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガレージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他連絡事項</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5分</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15分</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30分</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方位ってどこで使うんですか。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己位置推定を行うとき、最初ブレブレだから初期化を行う。その際、左右のモータは初期化しなくていいんですか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール立てました。</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾の角度からPWMを求めるのに、PID制御を使ったとします。そのときの書き方が分からないです</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3197,7 +4587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3241,6 +4631,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3863,6 +5256,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="162" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="15">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>3.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>3.3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
@@ -4016,10 +5554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4222,37 +5760,102 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4266,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4512,7 +6115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE61"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -4991,4 +6594,454 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/UML/レビュー2nd.xlsx
+++ b/UML/レビュー2nd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7680" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7680" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー2nd" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="7月2日質問事項" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="12" r:id="rId11"/>
+    <sheet name="20180712" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="358">
   <si>
     <t>線が交わる→クラス図がおかしい</t>
     <rPh sb="0" eb="1">
@@ -4430,6 +4431,472 @@
     <rPh sb="40" eb="41">
       <t>ワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本来は信頼性とかから線が伸びる</t>
+    <rPh sb="0" eb="2">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンライセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISOの観点から書いている</t>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今まで、ロボコンでこういった観点から書いている人がいないからギャンブル。もしかしたらだめなのかもしれない</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライマリーは字が小さくなると減点されるから気を付けて</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールするためにコースアウトしない…仮想ライントレースすればコースアウトしない(でも、ここでは気にしなくてよい)</t>
+    <rPh sb="18" eb="20">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケースとつながるのは正しい使い方。この機能は洗練されますよって感じ</t>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センレン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に間違っていることはないかなって思う</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレースとPID制御がつながってるけど飛んでるよね。ライントレースをどう行うかがPID制御</t>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行距離を短くするっていうためにはPID制御だけど、そこから線つながらないよね</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>satisfyが複数でているのおかしい。もうひとつ間に入る</t>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース記述は三野さんに推敲してもらった方がいいかも　</t>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミツノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スイコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ、区間情報はすべてのパッケージに依存していて、いろいろ持っている。</t>
+    <rPh sb="5" eb="7">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割を持ちすぎ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱぷりか、しゃんぱんふぁいと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間情報ファイルIO</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3つの歯車</t>
+    <rPh sb="3" eb="5">
+      <t>ハグルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ1つがクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御システム、魔法の関数持っている感じ</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標の判定、制御からたたく→インターフェースからなんとか・・・怒られる</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好まれる</t>
+    <rPh sb="0" eb="1">
+      <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しなりお　→　去年のうちやヘリオス</t>
+    <rPh sb="7" eb="9">
+      <t>キョネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス、ピタゴラスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレース名前変えたら？ライントレースさんは、走行するイメージだけど、今回は走行してないから、旋回量計算さんとかにしたら？</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定条件、課題のときと違うよね</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行管理が持っている情報、番号がいらないんじゃない？</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間の更新情報の終わりは？何の判定を行うかの情報が必要なのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>庄司さん指摘事項</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求の洗い出し</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その観点で作っている？</t>
+    <rPh sb="2" eb="4">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規格に沿って作っている？</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図はなにをするために書くの？ユースケース図は何のために書くの？とかを考えた方がよい</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5369,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -5398,6 +5865,194 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UML/レビュー2nd.xlsx
+++ b/UML/レビュー2nd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7680" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="7680" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー2nd" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="12" r:id="rId11"/>
     <sheet name="20180712" sheetId="14" r:id="rId12"/>
+    <sheet name="20180714" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="380">
   <si>
     <t>線が交わる→クラス図がおかしい</t>
     <rPh sb="0" eb="1">
@@ -4899,12 +4900,91 @@
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>カーブオフセット値は機能っぽくない。動作じゃない気がする。</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．パッケージの役割が明確化されていないように思える</t>
+  </si>
+  <si>
+    <t>　　　まずパッケージ図が無いようです。</t>
+  </si>
+  <si>
+    <t>　　　パッケージ図を書けばパッケージ間の適切な関連が</t>
+  </si>
+  <si>
+    <t>　　　見えてくるかと思います。</t>
+  </si>
+  <si>
+    <t>　　　現在はキャリブレーションパッケージが判定パッケージと</t>
+  </si>
+  <si>
+    <t>　　　関連を持っていたりしますが、これは適当でしょうか。</t>
+  </si>
+  <si>
+    <t>　　　中澤的には本来関連を持たなくて良い部分が関連を持ち、</t>
+  </si>
+  <si>
+    <t>　　　システムが複雑化して見えたり、凝集度が低くなっている</t>
+  </si>
+  <si>
+    <t>　　　印象を受けました。</t>
+  </si>
+  <si>
+    <t>　　　現在不安にしている尻尾などに関してもパッケージ図で</t>
+  </si>
+  <si>
+    <t>　　　パッケージ毎の責務を明確化すれば問題は解消するような気がします。</t>
+  </si>
+  <si>
+    <t>２．シーケンス図のクリエイト、削除等の記載がおかしい</t>
+  </si>
+  <si>
+    <t>　　　シーケンス図のクリエイトメッセージはC++でいうと</t>
+  </si>
+  <si>
+    <t>　　　new、デストロイメッセージはdeleteです。</t>
+  </si>
+  <si>
+    <t>　　　意図通りということであれば問題ありませんが、</t>
+  </si>
+  <si>
+    <t>　　　アクティブクラスに対するメッセージとして</t>
+  </si>
+  <si>
+    <t>　　　不適切に思えました。</t>
+  </si>
+  <si>
+    <t>３．シーケンス図のスタートがおかしい</t>
+  </si>
+  <si>
+    <t>　　　制御システムクラスはアクティブクラスです。</t>
+  </si>
+  <si>
+    <t>　　　アクティブが他クラスの関数をいきなり叩くことに</t>
+  </si>
+  <si>
+    <t>　　　違和感を感じました。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4931,6 +5011,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -5054,7 +5142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5101,6 +5189,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5872,7 +5963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -6047,6 +6138,139 @@
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
